--- a/RailsClient/uploadfiles/template/inventory_template.xlsx
+++ b/RailsClient/uploadfiles/template/inventory_template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>仓库号</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>库位号</t>
-  </si>
-  <si>
-    <t>包装号</t>
   </si>
   <si>
     <t>唯一码</t>
@@ -131,14 +128,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G1"/>
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
@@ -159,9 +156,6 @@
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -187,7 +181,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -212,7 +206,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8823529411765"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
